--- a/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_124.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936962B-D3B2-4B70-B5FC-FEEB1D432964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C19DA-C802-474C-A258-F7067CDE4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{66097FF7-88B3-442A-84FD-EF7EC3C9D38A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{66097FF7-88B3-442A-84FD-EF7EC3C9D38A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Podcast" sheetId="1" r:id="rId1"/>
-    <sheet name="Concentrado" sheetId="2" r:id="rId2"/>
+    <sheet name="Asistencia" sheetId="6" r:id="rId1"/>
+    <sheet name="Podcast" sheetId="1" r:id="rId2"/>
+    <sheet name="Mov_Circular" sheetId="3" r:id="rId3"/>
+    <sheet name="Sustentanbilidad" sheetId="4" r:id="rId4"/>
+    <sheet name="Examen" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrado" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$2:$K$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
   <si>
     <t>Matrícula</t>
   </si>
@@ -187,13 +194,151 @@
   </si>
   <si>
     <t>Ej_10_Abril</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Mov_Circular</t>
+  </si>
+  <si>
+    <t>Sustentabilidad</t>
+  </si>
+  <si>
+    <t>Carátula</t>
+  </si>
+  <si>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Con Melanie</t>
+  </si>
+  <si>
+    <t>Con Hilda</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +350,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,11 +389,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -571,11 +740,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634DF874-A08A-4249-808E-219D108A2149}">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45364</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45365</v>
+      </c>
+      <c r="E1" s="5">
+        <v>45371</v>
+      </c>
+      <c r="F1" s="5">
+        <v>45372</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45378</v>
+      </c>
+      <c r="H1" s="5">
+        <v>45379</v>
+      </c>
+      <c r="I1" s="5">
+        <v>45385</v>
+      </c>
+      <c r="J1" s="5">
+        <v>45386</v>
+      </c>
+      <c r="K1" s="5">
+        <v>45392</v>
+      </c>
+      <c r="L1" s="5">
+        <v>45393</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45399</v>
+      </c>
+      <c r="N1" s="5">
+        <v>45400</v>
+      </c>
+      <c r="O1" s="5">
+        <v>45406</v>
+      </c>
+      <c r="P1" s="5">
+        <v>45407</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>45414</v>
+      </c>
+      <c r="R1" s="5">
+        <v>45420</v>
+      </c>
+      <c r="S1" s="5">
+        <v>45422</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20263998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <f>SUM(C2:P2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20244739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T27" si="0">SUM(C3:P3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10187045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10186376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20238395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10185692</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20266322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20245456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10186574</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20249032</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20266998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20264862</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20268353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20264649</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10187502</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20235464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20247651</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20244756</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20266315</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20271313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20251515</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20250030</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20266265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20251561</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20270002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10186676</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DB879A-CE0B-4E31-9DA2-381A00648DE4}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +1289,33 @@
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
       <c r="L2" s="1">
         <f>SUM(D2:K2)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -655,9 +1328,33 @@
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L27" si="0">SUM(D3:K3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -670,9 +1367,33 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -685,9 +1406,33 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -700,9 +1445,33 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,9 +1484,33 @@
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -730,9 +1523,33 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -745,9 +1562,33 @@
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,9 +1601,33 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -773,11 +1638,35 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -829,9 +1718,33 @@
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -883,9 +1796,33 @@
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -898,9 +1835,33 @@
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -913,9 +1874,33 @@
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -928,9 +1913,33 @@
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -943,9 +1952,33 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -958,9 +1991,33 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -970,6 +2027,33 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -985,9 +2069,33 @@
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1000,9 +2108,33 @@
       <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1015,9 +2147,33 @@
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1030,9 +2186,33 @@
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1045,9 +2225,33 @@
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1058,11 +2262,35 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1070,326 +2298,5188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54EE5BA-D1D8-490F-82BE-3D46EE51DE77}">
-  <dimension ref="A1:H28"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C260C2D-EC26-4D40-919E-1FC6A17DA3AC}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" style="1"/>
+    <col min="3" max="11" width="4.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20263998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(C2:K2)</f>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20244739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L27" si="0">SUM(C3:K3)</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10187045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10186376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20238395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10185692</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20266322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20245456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10186574</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20249032</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20266998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20264862</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20268353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20264649</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10187502</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20235464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20247651</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20244756</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20266315</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20271313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20251515</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20250030</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20266265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20251561</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20270002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10186676</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF9AA49-3140-4960-BEEC-5FD0BADAB9A4}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20263998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(C2:F2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20244739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G27" si="0">SUM(C3:F3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10187045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10186376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20238395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10185692</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20266322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20245456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10186574</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20249032</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20266998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20264862</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20268353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20264649</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10187502</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20235464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20247651</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20244756</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20266315</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20271313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20251515</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20250030</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20266265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20251561</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20270002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10186676</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F9809A-A5AC-4507-ABC5-C763758BC475}">
+  <dimension ref="A1:AD27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="4.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20263998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>SUM(E2:X2)</f>
+        <v>16.75</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>(Y2/20)*10</f>
+        <v>8.375</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Z2+0.75</f>
+        <v>9.125</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>MAX(Z2:Z21,Z24:Z27)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20244739</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y25" si="0">SUM(E3:X3)</f>
+        <v>15.75</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z27" si="1">(Y3/20)*10</f>
+        <v>7.875</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AA21" si="2">Z3+0.75</f>
+        <v>8.625</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>10-AD2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10187045</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10186376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.625</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="2"/>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20238395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10185692</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.875</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="2"/>
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20266322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="2"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20245456</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="2"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10186574</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="1"/>
+        <v>7.125</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="2"/>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20249032</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20266998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20264862</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20268353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="1"/>
+        <v>3.375</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20264649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10187502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="1"/>
+        <v>7.625</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="2"/>
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20235464</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20247651</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="0"/>
+        <v>11.16</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="1"/>
+        <v>5.58</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20244756</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="1"/>
+        <v>6.625</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="2"/>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20266315</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="2"/>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20271313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="1"/>
+        <v>3.625</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20251515</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20250030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" ref="Y23" si="3">SUM(E23:X23)</f>
+        <v>20</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20266265</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>Z24+0.75</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20251561</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="AA25" s="3">
+        <f t="shared" ref="AA25:AA27" si="4">Z25+0.75</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>20270002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" ref="Y26:Y27" si="5">SUM(E26:X26)</f>
+        <v>18</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA26" s="3">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>10186676</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="5"/>
+        <v>17.8</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" si="4"/>
+        <v>9.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54EE5BA-D1D8-490F-82BE-3D46EE51DE77}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="6315" ySplit="975" topLeftCell="H1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10</v>
+      </c>
       <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(C1:F1)</f>
+        <v>31</v>
+      </c>
+      <c r="H1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20263998</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F3" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G28" si="0">SUM(C3:F3)</f>
+        <v>29.05</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(G3/$G$1)*10</f>
+        <v>9.370967741935484</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.125</v>
+      </c>
+      <c r="J3" s="3">
+        <f>H3*0.4+I3*0.6</f>
+        <v>9.2233870967741929</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20244739</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F4" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>26.3</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H28" si="1">(G4/$G$1)*10</f>
+        <v>8.4838709677419359</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J28" si="2">H4*0.4+I4*0.6</f>
+        <v>8.5715483870967741</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10187045</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F5" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>28.55</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2096774193548399</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9338709677419352</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10186376</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>6.129032258064516</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.375</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6766129032258066</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20238395</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
       <c r="F7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>26.9</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.6774193548387082</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0209677419354826</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10185692</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
       <c r="F8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6129032258064511</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.625</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2201612903225811</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20266322</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F9" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2903225806451619</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5661290322580648</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20245456</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>9.3548387096774182</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5919354838709676</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10186574</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1612903225806455</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.875</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9895161290322578</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20249032</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
       <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7741935483870961</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2096774193548381</v>
+      </c>
+      <c r="K12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20266998</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20264862</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
       <c r="F14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>28.55</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2096774193548399</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>9.2338709677419359</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20268353</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.125</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7975806451612906</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20264649</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
       <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.870967741935484</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5483870967741939</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10187502</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
+      <c r="C17" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F17" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2903225806451619</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8.375</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>8.7411290322580655</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20235464</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5483870967741939</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9693548387096778</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20247651</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="1">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F19" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0322580645161281</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>7.410903225806452</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20244756</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="1">
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
       <c r="F20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>28.65</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>9.241935483870968</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7.375</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1217741935483865</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20266315</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>8.870967741935484</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5.625</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9233870967741939</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20271313</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>7.225806451612903</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4.375</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5153225806451616</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20251515</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F23" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>9.8387096774193559</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>9.935483870967742</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20250030</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
+      <c r="C24" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F24" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>29.6</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5483870967741939</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>9.8193548387096783</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20266265</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="C25" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F25" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>27.7</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>8.935483870967742</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8241935483870968</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20251561</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
+      <c r="C26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>7.032258064516129</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0129032258064523</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20270002</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
+      <c r="C27" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.5</v>
+      </c>
       <c r="F27" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>28.3</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>9.129032258064516</v>
+      </c>
+      <c r="I27" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5016129032258068</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10186676</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
+      <c r="C28" s="1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9032258064516139</v>
+      </c>
+      <c r="I28" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3512903225806454</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K28" xr:uid="{B54EE5BA-D1D8-490F-82BE-3D46EE51DE77}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ANDRADE DELGADO BRYANA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C3:G28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>